--- a/com.offlineWebsite/ExcelData/CoursesList.xlsx
+++ b/com.offlineWebsite/ExcelData/CoursesList.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shri\git\pre-Offline\preProject\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shri\git\Offline\com.offlineWebsite\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="FemaleUsers" sheetId="2" r:id="rId2"/>
-    <sheet name="AllData" sheetId="3" r:id="rId3"/>
+    <sheet name="FemaleUsers" sheetId="2" r:id="rId1"/>
+    <sheet name="UserPage" sheetId="3" r:id="rId2"/>
+    <sheet name="DashboardPage" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Automation Testing</t>
   </si>
@@ -113,13 +114,25 @@
   </si>
   <si>
     <t>Delete</t>
+  </si>
+  <si>
+    <t>Java / J2EE</t>
+  </si>
+  <si>
+    <t>Php</t>
+  </si>
+  <si>
+    <t>SubCourses</t>
+  </si>
+  <si>
+    <t>MainCourses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +163,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -177,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,13 +221,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -228,6 +276,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,49 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,12 +584,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,132 +605,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>9898989898</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>999999999</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1111111111</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>999999999</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -724,4 +738,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>